--- a/web/assets/template/product_template.xlsx
+++ b/web/assets/template/product_template.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\꽁지\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D49F523-07EE-46D4-A6C5-A62486DC5AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC20B5-C6C4-4FFD-9A74-29520FA8DE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="885" windowWidth="26820" windowHeight="15315" xr2:uid="{4357A4CE-07D3-4862-99FD-6A5B44996FF9}"/>
+    <workbookView xWindow="105" yWindow="555" windowWidth="26820" windowHeight="15315" xr2:uid="{4357A4CE-07D3-4862-99FD-6A5B44996FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="상품리스트" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">상품리스트!$A$4:$CX$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,11 +59,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="A5")</t>
+jx:area(lastCell="CX5")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A6605FDA-1EFC-40C5-BEB3-4222CCCC180E}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{3881507D-422D-48F1-AFD5-E53DFDD7080F}">
       <text>
         <r>
           <rPr>
@@ -70,17 +73,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>user:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="list" var="data" lastCell="A5")</t>
+          <t>user:
+jx:each(items="list" var="data" lastCell="CX5")</t>
         </r>
       </text>
     </comment>
@@ -89,25 +83,629 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>상품리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>상품번호</t>
+  </si>
+  <si>
+    <t>${data.product_id}</t>
+  </si>
+  <si>
+    <t>${data.product_cd}</t>
+  </si>
+  <si>
+    <t>${data.product_market_cd}</t>
+  </si>
+  <si>
+    <t>${data.product_use_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_sale_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_ct}</t>
+  </si>
+  <si>
+    <t>${data.product_new_class}</t>
+  </si>
+  <si>
+    <t>${data.product_md_class}</t>
+  </si>
+  <si>
+    <t>${data.product_name}</t>
+  </si>
+  <si>
+    <t>${data.product_name_en}</t>
+  </si>
+  <si>
+    <t>${data.product_name_mg}</t>
+  </si>
+  <si>
+    <t>${data.product_supply_pd_name}</t>
+  </si>
+  <si>
+    <t>${data.product_model_name}</t>
+  </si>
+  <si>
+    <t>${data.product_summary_memo}</t>
+  </si>
+  <si>
+    <t>${data.product_brief_memo}</t>
+  </si>
+  <si>
+    <t>${data.product_html}</t>
+  </si>
+  <si>
+    <t>${data.product_mobile_html}</t>
+  </si>
+  <si>
+    <t>${data.product_mobile_memo_config}</t>
+  </si>
+  <si>
+    <t>${data.product_keyword}</t>
+  </si>
+  <si>
+    <t>${data.product_tex_class}</t>
+  </si>
+  <si>
+    <t>${data.product_user_payment}</t>
+  </si>
+  <si>
+    <t>${data.product_company_payment}</t>
+  </si>
+  <si>
+    <t>${data.product_payment}</t>
+  </si>
+  <si>
+    <t>${data.product_payment_empty_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_payment_memo}</t>
+  </si>
+  <si>
+    <t>${data.product_order_limit_quantity}</t>
+  </si>
+  <si>
+    <t>${data.product_max_limit}</t>
+  </si>
+  <si>
+    <t>${data.product_min_limit}</t>
+  </si>
+  <si>
+    <t>${data.product_go_event_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_adult_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_option_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_option_class}</t>
+  </si>
+  <si>
+    <t>${data.product_option_view_type}</t>
+  </si>
+  <si>
+    <t>${data.product_option_set_name}</t>
+  </si>
+  <si>
+    <t>${data.product_option_input}</t>
+  </si>
+  <si>
+    <t>${data.product_option_style}</t>
+  </si>
+  <si>
+    <t>${data.product_option_button_img}</t>
+  </si>
+  <si>
+    <t>${data.product_option_color}</t>
+  </si>
+  <si>
+    <t>${data.product_option_required}</t>
+  </si>
+  <si>
+    <t>${data.product_sold_out_memo}</t>
+  </si>
+  <si>
+    <t>${data.product_add_option}</t>
+  </si>
+  <si>
+    <t>${data.product_add_option_name}</t>
+  </si>
+  <si>
+    <t>${data.product_add_option_required}</t>
+  </si>
+  <si>
+    <t>${data.product_add_option_max_lang}</t>
+  </si>
+  <si>
+    <t>${data.product_detail_image}</t>
+  </si>
+  <si>
+    <t>${data.product_list_image}</t>
+  </si>
+  <si>
+    <t>${data.product_list_image_sm}</t>
+  </si>
+  <si>
+    <t>${data.product_list_image_response}</t>
+  </si>
+  <si>
+    <t>${data.product_add_image}</t>
+  </si>
+  <si>
+    <t>${data.product_made_company_cd}</t>
+  </si>
+  <si>
+    <t>${data.product_supplier}</t>
+  </si>
+  <si>
+    <t>${data.product_brand}</t>
+  </si>
+  <si>
+    <t>${data.product_trend}</t>
+  </si>
+  <si>
+    <t>${data.product_self_class_cd}</t>
+  </si>
+  <si>
+    <t>${data.product_create_date}</t>
+  </si>
+  <si>
+    <t>${data.product_release_date}</t>
+  </si>
+  <si>
+    <t>${data.product_validity_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_validity}</t>
+  </si>
+  <si>
+    <t>${data.product_origin}</t>
+  </si>
+  <si>
+    <t>${data.product_cm}</t>
+  </si>
+  <si>
+    <t>${data.product_payment_info}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_info}</t>
+  </si>
+  <si>
+    <t>${data.product_change_info}</t>
+  </si>
+  <si>
+    <t>${data.product_service_info}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_class}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_type}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_International_type}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_locale}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_payment_type}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_date}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_payment_class}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_payment}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_store_pickup}</t>
+  </si>
+  <si>
+    <t>${data.product_kg}</t>
+  </si>
+  <si>
+    <t>${data.product_global_hs_code}</t>
+  </si>
+  <si>
+    <t>${data.product_global_clearance}</t>
+  </si>
+  <si>
+    <t>${data.product_material}</t>
+  </si>
+  <si>
+    <t>${data.product_material_en}</t>
+  </si>
+  <si>
+    <t>${data.product_fabric}</t>
+  </si>
+  <si>
+    <t>${data.product_seo_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_seo_title}</t>
+  </si>
+  <si>
+    <t>${data.product_seo_author}</t>
+  </si>
+  <si>
+    <t>${data.product_seo_description}</t>
+  </si>
+  <si>
+    <t>${data.product_seo_keywords}</t>
+  </si>
+  <si>
+    <t>${data.product_seo_alt}</t>
+  </si>
+  <si>
+    <t>${data.product_payment_type}</t>
+  </si>
+  <si>
+    <t>${data.product_delivery_type_code}</t>
+  </si>
+  <si>
+    <t>${data.product_memo}</t>
+  </si>
+  <si>
+    <t>${data.product_point_class}</t>
+  </si>
+  <si>
+    <t>${data.product_point_rate}</t>
+  </si>
+  <si>
+    <t>${data.product_point_rate_cash}</t>
+  </si>
+  <si>
+    <t>${data.product_influencer}</t>
+  </si>
+  <si>
+    <t>${data.product_sp_class}</t>
+  </si>
+  <si>
+    <t>${data.product_live_type}</t>
+  </si>
+  <si>
+    <t>${data.product_payment_class_value}</t>
+  </si>
+  <si>
+    <t>${data.product_use_member_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_youtube_id}</t>
+  </si>
+  <si>
+    <t>${data.product_validity_start}</t>
+  </si>
+  <si>
+    <t>${data.product_validity_end}</t>
+  </si>
+  <si>
+    <t>${data.product_stock_use_yn}</t>
+  </si>
+  <si>
+    <t>${data.product_stock_quantity}</t>
+  </si>
+  <si>
+    <t>${data.product_store_id}</t>
+  </si>
+  <si>
     <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.product_cd}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체 상품코드</t>
+  </si>
+  <si>
+    <t>진열상태</t>
+  </si>
+  <si>
+    <t>판매상태</t>
+  </si>
+  <si>
+    <t>상품분류 번호</t>
+  </si>
+  <si>
+    <t>상품분류 신상품영역</t>
+  </si>
+  <si>
+    <t>상품분류 추천상품영역</t>
+  </si>
+  <si>
+    <t>상품명</t>
+  </si>
+  <si>
+    <t>영문 상품명</t>
+  </si>
+  <si>
+    <t>상품명(관리용)</t>
+  </si>
+  <si>
+    <t>공급사 상품명</t>
+  </si>
+  <si>
+    <t>모델명</t>
+  </si>
+  <si>
+    <t>상품 요약설명</t>
+  </si>
+  <si>
+    <t>상품 간략설명</t>
+  </si>
+  <si>
+    <t>상품 상세설명(html 작성가능)</t>
+  </si>
+  <si>
+    <t>모바일 상품 상세설명(html 작성가능)</t>
+  </si>
+  <si>
+    <t>모바일 상품 상세설명</t>
+  </si>
+  <si>
+    <t>검색어설정 구분자,</t>
+  </si>
+  <si>
+    <t>과세구분</t>
+  </si>
+  <si>
+    <t>소비자가</t>
+  </si>
+  <si>
+    <t>공급가</t>
+  </si>
+  <si>
+    <t>판매가</t>
+  </si>
+  <si>
+    <t>판매가 대체문구 사용</t>
+  </si>
+  <si>
+    <t>판매가 대체문구</t>
+  </si>
+  <si>
+    <t>주문수량 제한 기준</t>
+  </si>
+  <si>
+    <t>최대 주문수량(이하)</t>
+  </si>
+  <si>
+    <t>최소 주문수량(이상)</t>
+  </si>
+  <si>
+    <t>공통이벤트 정보</t>
+  </si>
+  <si>
+    <t>성인인증</t>
+  </si>
+  <si>
+    <t>옵션사용</t>
+  </si>
+  <si>
+    <t>품목 구성방식 조합T,연동E,독립F</t>
+  </si>
+  <si>
+    <t>T면 옵션 표시방식 C/S</t>
+  </si>
+  <si>
+    <t>옵션세트명</t>
+  </si>
+  <si>
+    <t>옵션입력</t>
+  </si>
+  <si>
+    <t>옵션 스타일</t>
+  </si>
+  <si>
+    <t>버튼이미지 설정</t>
+  </si>
+  <si>
+    <t>색상 설정</t>
+  </si>
+  <si>
+    <t>필수여부</t>
+  </si>
+  <si>
+    <t>품절표시 문구</t>
+  </si>
+  <si>
+    <t>추가입력옵션</t>
+  </si>
+  <si>
+    <t>추가입력옵션 명칭</t>
+  </si>
+  <si>
+    <t>추가입력옵션 선택/필수여부</t>
+  </si>
+  <si>
+    <t>입력글자수(자)</t>
+  </si>
+  <si>
+    <t>이미지등록(상세)</t>
+  </si>
+  <si>
+    <t>이미지등록(목록)</t>
+  </si>
+  <si>
+    <t>이미지등록(작은목록)</t>
+  </si>
+  <si>
+    <t>이미지등록(축소)</t>
+  </si>
+  <si>
+    <t>이미지등록(추가)</t>
+  </si>
+  <si>
+    <t>제조사</t>
+  </si>
+  <si>
+    <t>공급사</t>
+  </si>
+  <si>
+    <t>브랜드</t>
+  </si>
+  <si>
+    <t>트렌드</t>
+  </si>
+  <si>
+    <t>자체분류 코드</t>
+  </si>
+  <si>
+    <t>제조일자</t>
+  </si>
+  <si>
+    <t>출시일자</t>
+  </si>
+  <si>
+    <t>유효기간 사용여부</t>
+  </si>
+  <si>
+    <t>유효기간</t>
+  </si>
+  <si>
+    <t>원산지</t>
+  </si>
+  <si>
+    <t>상품부피(cm)</t>
+  </si>
+  <si>
+    <t>상품결제안내</t>
+  </si>
+  <si>
+    <t>상품배송안내</t>
+  </si>
+  <si>
+    <t>교환/반품안내</t>
+  </si>
+  <si>
+    <t>서비스문의/안내</t>
+  </si>
+  <si>
+    <t>배송정보</t>
+  </si>
+  <si>
+    <t>배송방법</t>
+  </si>
+  <si>
+    <t>국내/해외배송</t>
+  </si>
+  <si>
+    <t>배송지역</t>
+  </si>
+  <si>
+    <t>배송비 선결제 설정</t>
+  </si>
+  <si>
+    <t>배송기간</t>
+  </si>
+  <si>
+    <t>배송비 구분</t>
+  </si>
+  <si>
+    <t>배송비입력</t>
+  </si>
+  <si>
+    <t>스토어픽업 설정</t>
+  </si>
+  <si>
+    <t>상품 전체중량(kg)</t>
+  </si>
+  <si>
+    <t>HS코드</t>
+  </si>
+  <si>
+    <t>상품 구분(해외통관)</t>
+  </si>
+  <si>
+    <t>상품소재</t>
+  </si>
+  <si>
+    <t>영문 상품소재(해외통관)</t>
+  </si>
+  <si>
+    <t>옷감(해외통관)</t>
+  </si>
+  <si>
+    <t>SEO 노출 설정</t>
+  </si>
+  <si>
+    <t>SEO Title</t>
+  </si>
+  <si>
+    <t>SEO Author</t>
+  </si>
+  <si>
+    <t>(SEO) Description</t>
+  </si>
+  <si>
+    <t>(SEO) Keywords</t>
+  </si>
+  <si>
+    <t>(SEO) 상품 이미지 Alt 텍스트</t>
+  </si>
+  <si>
+    <t>개별결제수단설정</t>
+  </si>
+  <si>
+    <t>상품배송유형 코드</t>
+  </si>
+  <si>
+    <t>메모</t>
+  </si>
+  <si>
+    <t>적립금 구분</t>
+  </si>
+  <si>
+    <t>E-point 적립(%)</t>
+  </si>
+  <si>
+    <t>E-point 적립(금액)</t>
+  </si>
+  <si>
+    <t>인플루언서</t>
+  </si>
+  <si>
+    <t>특사상품 노출 여부</t>
+  </si>
+  <si>
+    <t>라이브쇼핑 구분/utube : U 동영상파일 M</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>회원전용노출여부</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구분이 유튜브이면 </t>
+  </si>
+  <si>
+    <t>판매기간 시작</t>
+  </si>
+  <si>
+    <t>판매기간종료</t>
+  </si>
+  <si>
+    <t>재고사용여부</t>
+  </si>
+  <si>
+    <t>재고수량</t>
+  </si>
+  <si>
+    <t>입점업체 아이디</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +743,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,11 +775,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,47 +1099,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1B2D5-8713-4E13-957E-72CA87F993EE}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:CX5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>88</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>93</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:CX5" xr:uid="{18F073CF-BF84-4B4C-921B-4E7451EC8097}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
